--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr showObjects="placeholders" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E50C062-612F-4E0F-AC58-F14910DB8A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1043541B-01F2-4E37-9173-F37B7CFD658B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47990" yWindow="3630" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38980" yWindow="1680" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Pipeline" sheetId="29" r:id="rId1"/>
@@ -4212,7 +4212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="1135">
   <si>
     <t>CINV</t>
   </si>
@@ -7611,6 +7611,12 @@
   </si>
   <si>
     <t>97</t>
+  </si>
+  <si>
+    <t>HS-10535</t>
+  </si>
+  <si>
+    <t>GLP-1</t>
   </si>
 </sst>
 </file>
@@ -8255,7 +8261,7 @@
     </xf>
     <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -8550,9 +8556,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -12151,10 +12154,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -13068,162 +13071,178 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="74" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E49" s="119">
+        <v>1</v>
+      </c>
+      <c r="F49" s="75" t="s">
+        <v>389</v>
+      </c>
+      <c r="G49" s="58"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="74" t="s">
         <v>875</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C50" s="75" t="s">
         <v>870</v>
       </c>
-      <c r="D49" s="75" t="s">
+      <c r="D50" s="75" t="s">
         <v>877</v>
       </c>
-      <c r="E49" s="119" t="s">
+      <c r="E50" s="119" t="s">
         <v>876</v>
       </c>
-      <c r="F49" s="75" t="s">
+      <c r="F50" s="75" t="s">
         <v>341</v>
       </c>
-      <c r="G49" s="58"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="121" t="s">
+      <c r="G50" s="58"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="121" t="s">
         <v>978</v>
       </c>
-      <c r="C50" s="122" t="s">
+      <c r="C51" s="122" t="s">
         <v>881</v>
       </c>
-      <c r="D50" s="122" t="s">
+      <c r="D51" s="122" t="s">
         <v>882</v>
       </c>
-      <c r="E50" s="123">
+      <c r="E51" s="123">
         <v>1</v>
       </c>
-      <c r="F50" s="122" t="s">
+      <c r="F51" s="122" t="s">
         <v>341</v>
       </c>
-      <c r="G50" s="68"/>
-    </row>
-    <row r="52" spans="2:7" ht="13">
-      <c r="E52" s="69"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="53" spans="2:7" ht="13">
-      <c r="B53" s="47"/>
-      <c r="E53" s="69" t="s">
-        <v>803</v>
-      </c>
+      <c r="E53" s="69"/>
     </row>
     <row r="54" spans="2:7" ht="13">
       <c r="B54" s="47"/>
       <c r="E54" s="69" t="s">
-        <v>915</v>
+        <v>803</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="13">
       <c r="B55" s="47"/>
-      <c r="E55" s="120" t="s">
-        <v>914</v>
+      <c r="E55" s="69" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="13">
       <c r="B56" s="47"/>
       <c r="E56" s="120" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="13">
       <c r="B57" s="47"/>
-      <c r="E57" s="69" t="s">
+      <c r="E57" s="120" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="13">
+      <c r="B58" s="47"/>
+      <c r="E58" s="69" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="13">
-      <c r="E58" s="69" t="s">
+    <row r="59" spans="2:7" ht="13">
+      <c r="E59" s="69" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="13">
-      <c r="B59" s="4"/>
-      <c r="E59" s="69" t="s">
+    <row r="60" spans="2:7" ht="13">
+      <c r="B60" s="4"/>
+      <c r="E60" s="69" t="s">
         <v>884</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="13">
-      <c r="E60" s="120" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="13">
       <c r="E61" s="120" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="13">
+      <c r="E62" s="120" t="s">
         <v>880</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="13">
-      <c r="E62" s="69" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="13">
       <c r="E63" s="69" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="13">
+      <c r="E64" s="69" t="s">
         <v>878</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="13">
-      <c r="E64" s="120" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="65" spans="5:5" ht="13">
       <c r="E65" s="120" t="s">
-        <v>1048</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="66" spans="5:5" ht="13">
       <c r="E66" s="120" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="67" spans="5:5" ht="13">
       <c r="E67" s="120" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="68" spans="5:5" ht="13">
       <c r="E68" s="120" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" ht="13">
+      <c r="E69" s="120" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="69" spans="5:5" ht="13">
-      <c r="E69" s="120"/>
     </row>
     <row r="70" spans="5:5" ht="13">
       <c r="E70" s="120"/>
     </row>
     <row r="71" spans="5:5" ht="13">
-      <c r="E71" s="69" t="s">
+      <c r="E71" s="120"/>
+    </row>
+    <row r="72" spans="5:5" ht="13">
+      <c r="E72" s="69" t="s">
         <v>977</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="76" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" s="76" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="74" spans="5:5">
       <c r="E74" s="76" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="75" spans="5:5">
       <c r="E75" s="76" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="76" spans="5:5">
       <c r="E76" s="76" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="76" t="s">
         <v>1062</v>
       </c>
     </row>
@@ -14821,7 +14840,7 @@
       <c r="CR1" s="82"/>
       <c r="CS1" s="82"/>
       <c r="CT1" s="82"/>
-      <c r="CU1" s="135"/>
+      <c r="CU1" s="82"/>
       <c r="CV1" s="82"/>
       <c r="CW1" s="82"/>
       <c r="CX1" s="82"/>
@@ -42138,7 +42157,7 @@
         <v>931</v>
       </c>
       <c r="CV103" s="91">
-        <f t="shared" ref="CU103:CX103" si="222">+CV102*0.3</f>
+        <f t="shared" ref="CV103:CX103" si="222">+CV102*0.3</f>
         <v>0</v>
       </c>
       <c r="CW103" s="91">
@@ -43833,7 +43852,7 @@
         <v>2531</v>
       </c>
       <c r="CV106" s="91">
-        <f t="shared" ref="CU106:CX106" si="251">+CU106</f>
+        <f t="shared" ref="CV106:CX106" si="251">+CU106</f>
         <v>2531</v>
       </c>
       <c r="CW106" s="91">
@@ -54819,79 +54838,79 @@
       <c r="BY171" s="110"/>
       <c r="BZ171" s="110"/>
       <c r="CA171" s="110">
-        <f>+CA10/BW10-1</f>
+        <f t="shared" ref="CA171:CJ172" si="312">+CA10/BW10-1</f>
         <v>-6.067961165048541E-2</v>
       </c>
       <c r="CB171" s="110">
-        <f>+CB10/BX10-1</f>
+        <f t="shared" si="312"/>
         <v>-5.9471365638766538E-2</v>
       </c>
       <c r="CC171" s="110">
-        <f>+CC10/BY10-1</f>
+        <f t="shared" si="312"/>
         <v>1.7348203221809078E-2</v>
       </c>
       <c r="CD171" s="110">
-        <f>+CD10/BZ10-1</f>
+        <f t="shared" si="312"/>
         <v>-9.1198303287380655E-2</v>
       </c>
       <c r="CE171" s="110">
-        <f>+CE10/CA10-1</f>
+        <f t="shared" si="312"/>
         <v>4.5219638242893989E-2</v>
       </c>
       <c r="CF171" s="110">
-        <f>+CF10/CB10-1</f>
+        <f t="shared" si="312"/>
         <v>-8.1967213114754078E-2</v>
       </c>
       <c r="CG171" s="110">
-        <f>+CG10/CC10-1</f>
+        <f t="shared" si="312"/>
         <v>3.7758830694275325E-2</v>
       </c>
       <c r="CH171" s="110">
-        <f>+CH10/CD10-1</f>
+        <f t="shared" si="312"/>
         <v>2.4504084014002281E-2</v>
       </c>
       <c r="CI171" s="110">
-        <f>+CI10/CE10-1</f>
+        <f t="shared" si="312"/>
         <v>-3.7082818294190356E-2</v>
       </c>
       <c r="CJ171" s="110">
-        <f>+CJ10/CF10-1</f>
+        <f t="shared" si="312"/>
         <v>-3.5714285714285698E-2</v>
       </c>
       <c r="CK171" s="110">
-        <f>+CK10/CG10-1</f>
+        <f t="shared" ref="CK171:CT172" si="313">+CK10/CG10-1</f>
         <v>-0.15845070422535212</v>
       </c>
       <c r="CL171" s="110">
-        <f>+CL10/CH10-1</f>
+        <f t="shared" si="313"/>
         <v>-0.36104783599088841</v>
       </c>
       <c r="CM171" s="110">
-        <f>+CM10/CI10-1</f>
+        <f t="shared" si="313"/>
         <v>-0.29268292682926833</v>
       </c>
       <c r="CN171" s="110">
-        <f>+CN10/CJ10-1</f>
+        <f t="shared" si="313"/>
         <v>-0.32407407407407407</v>
       </c>
       <c r="CO171" s="110">
-        <f>+CO10/CK10-1</f>
+        <f t="shared" si="313"/>
         <v>-0.18967921896792195</v>
       </c>
       <c r="CP171" s="110">
-        <f>+CP10/CL10-1</f>
+        <f t="shared" si="313"/>
         <v>-2.4955436720142554E-2</v>
       </c>
       <c r="CQ171" s="110">
-        <f>+CQ10/CM10-1</f>
+        <f t="shared" si="313"/>
         <v>-0.23956442831215974</v>
       </c>
       <c r="CR171" s="110">
-        <f>+CR10/CN10-1</f>
+        <f t="shared" si="313"/>
         <v>-0.20743639921722112</v>
       </c>
       <c r="CS171" s="110">
-        <f>+CS10/CO10-1</f>
+        <f t="shared" si="313"/>
         <v>-0.52151462994836484</v>
       </c>
       <c r="CT171" s="110"/>
@@ -54974,63 +54993,63 @@
         <v>440</v>
       </c>
       <c r="AF172" s="110">
-        <f t="shared" ref="AF172:AT172" si="312">+AF11/AB11-1</f>
+        <f t="shared" ref="AF172:AT172" si="314">+AF11/AB11-1</f>
         <v>2</v>
       </c>
       <c r="AG172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>4.3157894736842106</v>
       </c>
       <c r="AH172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>-1</v>
       </c>
       <c r="AI172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="AJ172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>1.1527777777777777</v>
       </c>
       <c r="AK172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>0.71287128712871284</v>
       </c>
       <c r="AL172" s="110" t="e">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>0.5703125</v>
       </c>
       <c r="AN172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>0.40645161290322585</v>
       </c>
       <c r="AO172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>0.42774566473988429</v>
       </c>
       <c r="AP172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>0.42574257425742568</v>
       </c>
       <c r="AQ172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>0.51741293532338317</v>
       </c>
       <c r="AR172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>0.47247706422018343</v>
       </c>
       <c r="AS172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>0.417004048582996</v>
       </c>
       <c r="AT172" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="314"/>
         <v>0.34027777777777768</v>
       </c>
       <c r="AU172" s="110"/>
@@ -55066,79 +55085,79 @@
       <c r="BY172" s="110"/>
       <c r="BZ172" s="110"/>
       <c r="CA172" s="110">
-        <f>+CA11/BW11-1</f>
+        <f t="shared" si="312"/>
         <v>-5.0943396226415083E-2</v>
       </c>
       <c r="CB172" s="110">
-        <f>+CB11/BX11-1</f>
+        <f t="shared" si="312"/>
         <v>-8.0675422138836828E-2</v>
       </c>
       <c r="CC172" s="110">
-        <f>+CC11/BY11-1</f>
+        <f t="shared" si="312"/>
         <v>5.9642147117295874E-3</v>
       </c>
       <c r="CD172" s="110">
-        <f>+CD11/BZ11-1</f>
+        <f t="shared" si="312"/>
         <v>-6.3157894736841635E-3</v>
       </c>
       <c r="CE172" s="110">
-        <f>+CE11/CA11-1</f>
+        <f t="shared" si="312"/>
         <v>-3.379721669980118E-2</v>
       </c>
       <c r="CF172" s="110">
-        <f>+CF11/CB11-1</f>
+        <f t="shared" si="312"/>
         <v>-2.6530612244897944E-2</v>
       </c>
       <c r="CG172" s="110">
-        <f>+CG11/CC11-1</f>
+        <f t="shared" si="312"/>
         <v>-3.7549407114624511E-2</v>
       </c>
       <c r="CH172" s="110">
-        <f>+CH11/CD11-1</f>
+        <f t="shared" si="312"/>
         <v>8.8983050847457612E-2</v>
       </c>
       <c r="CI172" s="110">
-        <f>+CI11/CE11-1</f>
+        <f t="shared" si="312"/>
         <v>-6.5843621399176988E-2</v>
       </c>
       <c r="CJ172" s="110">
-        <f>+CJ11/CF11-1</f>
+        <f t="shared" si="312"/>
         <v>-2.0964360587002462E-3</v>
       </c>
       <c r="CK172" s="110">
-        <f>+CK11/CG11-1</f>
+        <f t="shared" si="313"/>
         <v>-0.14373716632443534</v>
       </c>
       <c r="CL172" s="110">
-        <f>+CL11/CH11-1</f>
+        <f t="shared" si="313"/>
         <v>-0.3132295719844358</v>
       </c>
       <c r="CM172" s="110">
-        <f>+CM11/CI11-1</f>
+        <f t="shared" si="313"/>
         <v>-0.27533039647577096</v>
       </c>
       <c r="CN172" s="110">
-        <f>+CN11/CJ11-1</f>
+        <f t="shared" si="313"/>
         <v>-0.25630252100840334</v>
       </c>
       <c r="CO172" s="110">
-        <f>+CO11/CK11-1</f>
+        <f t="shared" si="313"/>
         <v>-0.38848920863309355</v>
       </c>
       <c r="CP172" s="110">
-        <f>+CP11/CL11-1</f>
+        <f t="shared" si="313"/>
         <v>-0.32011331444759206</v>
       </c>
       <c r="CQ172" s="110">
-        <f>+CQ11/CM11-1</f>
+        <f t="shared" si="313"/>
         <v>-0.23708206686930089</v>
       </c>
       <c r="CR172" s="110">
-        <f>+CR11/CN11-1</f>
+        <f t="shared" si="313"/>
         <v>-0.36723163841807904</v>
       </c>
       <c r="CS172" s="110">
-        <f>+CS11/CO11-1</f>
+        <f t="shared" si="313"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="CT172" s="110"/>
@@ -55221,55 +55240,55 @@
         <v>440</v>
       </c>
       <c r="AH173" s="110">
-        <f t="shared" ref="AH173:AT173" si="313">+AH23/AD23-1</f>
+        <f t="shared" ref="AH173:AT173" si="315">+AH23/AD23-1</f>
         <v>7.9120879120879062E-2</v>
       </c>
       <c r="AI173" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>2.1696252465483346E-2</v>
       </c>
       <c r="AJ173" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>1.4362657091562037E-2</v>
       </c>
       <c r="AK173" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>7.8014184397163122E-2</v>
       </c>
       <c r="AL173" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>-0.12219959266802449</v>
       </c>
       <c r="AM173" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>0.30115830115830122</v>
       </c>
       <c r="AN173" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>0.1840707964601771</v>
       </c>
       <c r="AO173" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>8.7171052631578982E-2</v>
       </c>
       <c r="AP173" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>0.64733178654292334</v>
       </c>
       <c r="AQ173" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>0.1172106824925816</v>
       </c>
       <c r="AR173" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>0.25859491778774291</v>
       </c>
       <c r="AS173" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>-0.15128593040847205</v>
       </c>
       <c r="AT173" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="315"/>
         <v>-0.28028169014084503</v>
       </c>
       <c r="AU173" s="110"/>
@@ -55391,71 +55410,71 @@
       <c r="AB174" s="110"/>
       <c r="AC174" s="110"/>
       <c r="AD174" s="110">
-        <f t="shared" ref="AD174:AT174" si="314">+AD52/Z52-1</f>
+        <f t="shared" ref="AD174:AT174" si="316">+AD52/Z52-1</f>
         <v>8.5187194791101595E-2</v>
       </c>
       <c r="AE174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>4.3924334722667657E-2</v>
       </c>
       <c r="AF174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-0.13738344988344986</v>
       </c>
       <c r="AG174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-0.18152958152958143</v>
       </c>
       <c r="AH174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-3.7999999999999923E-2</v>
       </c>
       <c r="AI174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-0.26750614250614257</v>
       </c>
       <c r="AJ174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-0.10150312447221754</v>
       </c>
       <c r="AK174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-7.4400564174894268E-2</v>
       </c>
       <c r="AL174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-3.4650034650041128E-4</v>
       </c>
       <c r="AM174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>0</v>
       </c>
       <c r="AN174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-7.8947368421052655E-2</v>
       </c>
       <c r="AO174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-7.6190476190476142E-2</v>
       </c>
       <c r="AP174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-2.5996533795493937E-2</v>
       </c>
       <c r="AQ174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>6.2893081761006275E-3</v>
       </c>
       <c r="AR174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-6.3265306122448961E-2</v>
       </c>
       <c r="AS174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-3.2989690721649478E-2</v>
       </c>
       <c r="AT174" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="316"/>
         <v>-0.15480427046263345</v>
       </c>
       <c r="AU174" s="110"/>
@@ -55577,71 +55596,71 @@
       <c r="AB175" s="110"/>
       <c r="AC175" s="110"/>
       <c r="AD175" s="110">
-        <f t="shared" ref="AD175:AT175" si="315">+AD51/Z51-1</f>
+        <f t="shared" ref="AD175:AT175" si="317">+AD51/Z51-1</f>
         <v>0.13784741652676735</v>
       </c>
       <c r="AE175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>6.9301470588235325E-2</v>
       </c>
       <c r="AF175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>-2.9610389610389642E-2</v>
       </c>
       <c r="AG175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>-0.11976935749588147</v>
       </c>
       <c r="AH175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>-1</v>
       </c>
       <c r="AI175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>-0.12325941206807645</v>
       </c>
       <c r="AJ175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>-7.8515346181298185E-3</v>
       </c>
       <c r="AK175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>5.371514130638233E-2</v>
       </c>
       <c r="AL175" s="110" t="e">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>4.705882352941182E-2</v>
       </c>
       <c r="AN175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>1.4388489208633004E-2</v>
       </c>
       <c r="AO175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>1.4209591474245054E-2</v>
       </c>
       <c r="AP175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>2.4429967426710109E-2</v>
       </c>
       <c r="AQ175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>8.98876404494382E-2</v>
       </c>
       <c r="AR175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>4.9645390070921946E-2</v>
       </c>
       <c r="AS175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>7.5306479859895026E-2</v>
       </c>
       <c r="AT175" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="317"/>
         <v>1.7488076311605649E-2</v>
       </c>
       <c r="AU175" s="110"/>
@@ -57200,35 +57219,35 @@
       <c r="M186" s="85"/>
       <c r="N186" s="85"/>
       <c r="O186" s="85" t="e">
-        <f t="shared" ref="O186:V186" si="316">O185-O187</f>
+        <f t="shared" ref="O186:V186" si="318">O185-O187</f>
         <v>#REF!</v>
       </c>
       <c r="P186" s="85" t="e">
-        <f t="shared" si="316"/>
+        <f t="shared" si="318"/>
         <v>#REF!</v>
       </c>
       <c r="Q186" s="85" t="e">
-        <f t="shared" si="316"/>
+        <f t="shared" si="318"/>
         <v>#REF!</v>
       </c>
       <c r="R186" s="85" t="e">
-        <f t="shared" si="316"/>
+        <f t="shared" si="318"/>
         <v>#REF!</v>
       </c>
       <c r="S186" s="85" t="e">
-        <f t="shared" si="316"/>
+        <f t="shared" si="318"/>
         <v>#REF!</v>
       </c>
       <c r="T186" s="85">
-        <f t="shared" si="316"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="U186" s="85">
-        <f t="shared" si="316"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="V186" s="85" t="e">
-        <f t="shared" si="316"/>
+        <f t="shared" si="318"/>
         <v>#REF!</v>
       </c>
       <c r="W186" s="85"/>
@@ -57858,51 +57877,51 @@
       <c r="I190" s="92"/>
       <c r="J190" s="92"/>
       <c r="K190" s="92">
-        <f t="shared" ref="K190:V190" si="317">ROUND(K104/K189,2)</f>
+        <f t="shared" ref="K190:V190" si="319">ROUND(K104/K189,2)</f>
         <v>-1.79</v>
       </c>
       <c r="L190" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>-1.67</v>
       </c>
       <c r="M190" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>-1.74</v>
       </c>
       <c r="N190" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>-1.9</v>
       </c>
       <c r="O190" s="92" t="e">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>#REF!</v>
       </c>
       <c r="P190" s="92" t="e">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>#REF!</v>
       </c>
       <c r="Q190" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>-1.27</v>
       </c>
       <c r="R190" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>-1.25</v>
       </c>
       <c r="S190" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>-1.23</v>
       </c>
       <c r="T190" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>-1.34</v>
       </c>
       <c r="U190" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>-1.22</v>
       </c>
       <c r="V190" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="319"/>
         <v>-1.19</v>
       </c>
       <c r="W190" s="92"/>
@@ -58185,47 +58204,47 @@
       <c r="I192" s="91"/>
       <c r="J192" s="91"/>
       <c r="K192" s="91">
-        <f t="shared" ref="K192:U192" si="318">K102+K96+K95+K185</f>
+        <f t="shared" ref="K192:U192" si="320">K102+K96+K95+K185</f>
         <v>-3021.7999999999997</v>
       </c>
       <c r="L192" s="91">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>-2563</v>
       </c>
       <c r="M192" s="91">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>-2950.9000000000005</v>
       </c>
       <c r="N192" s="91">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>-3537.7999999999997</v>
       </c>
       <c r="O192" s="91" t="e">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>#REF!</v>
       </c>
       <c r="P192" s="91" t="e">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>#REF!</v>
       </c>
       <c r="Q192" s="91" t="e">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>#REF!</v>
       </c>
       <c r="R192" s="91" t="e">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>#REF!</v>
       </c>
       <c r="S192" s="91" t="e">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>#REF!</v>
       </c>
       <c r="T192" s="91">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>-2190.2000000000003</v>
       </c>
       <c r="U192" s="91">
-        <f t="shared" si="318"/>
+        <f t="shared" si="320"/>
         <v>-1877.1000000000001</v>
       </c>
       <c r="V192" s="91"/>
@@ -58744,11 +58763,11 @@
       <c r="DB195" s="112"/>
       <c r="DC195" s="112"/>
       <c r="DD195" s="91">
-        <f t="shared" ref="DD195:DD200" si="319">SUM(K195:N195)</f>
+        <f t="shared" ref="DD195:DD200" si="321">SUM(K195:N195)</f>
         <v>195</v>
       </c>
       <c r="DE195" s="91">
-        <f t="shared" ref="DE195:DE200" si="320">SUM(O195:R195)</f>
+        <f t="shared" ref="DE195:DE200" si="322">SUM(O195:R195)</f>
         <v>106</v>
       </c>
       <c r="DF195" s="114">
@@ -58904,11 +58923,11 @@
       <c r="DB196" s="112"/>
       <c r="DC196" s="112"/>
       <c r="DD196" s="91">
-        <f t="shared" si="319"/>
+        <f t="shared" si="321"/>
         <v>0</v>
       </c>
       <c r="DE196" s="91">
-        <f t="shared" si="320"/>
+        <f t="shared" si="322"/>
         <v>93.2</v>
       </c>
       <c r="DF196" s="114">
@@ -59064,11 +59083,11 @@
       <c r="DB197" s="112"/>
       <c r="DC197" s="112"/>
       <c r="DD197" s="91">
-        <f t="shared" si="319"/>
+        <f t="shared" si="321"/>
         <v>0</v>
       </c>
       <c r="DE197" s="91">
-        <f t="shared" si="320"/>
+        <f t="shared" si="322"/>
         <v>745.4</v>
       </c>
       <c r="DF197" s="114"/>
@@ -59221,11 +59240,11 @@
       <c r="DB198" s="112"/>
       <c r="DC198" s="112"/>
       <c r="DD198" s="91">
-        <f t="shared" si="319"/>
+        <f t="shared" si="321"/>
         <v>0</v>
       </c>
       <c r="DE198" s="91">
-        <f t="shared" si="320"/>
+        <f t="shared" si="322"/>
         <v>-173.6</v>
       </c>
       <c r="DF198" s="85"/>
@@ -59265,27 +59284,27 @@
       <c r="I199" s="114"/>
       <c r="J199" s="114"/>
       <c r="K199" s="114">
-        <f t="shared" ref="K199:P199" si="321">K91-K195</f>
+        <f t="shared" ref="K199:P199" si="323">K91-K195</f>
         <v>1547.3</v>
       </c>
       <c r="L199" s="114">
-        <f t="shared" si="321"/>
+        <f t="shared" si="323"/>
         <v>1589.9</v>
       </c>
       <c r="M199" s="114">
-        <f t="shared" si="321"/>
+        <f t="shared" si="323"/>
         <v>1463.6</v>
       </c>
       <c r="N199" s="114">
-        <f t="shared" si="321"/>
+        <f t="shared" si="323"/>
         <v>1599.1</v>
       </c>
       <c r="O199" s="114">
-        <f t="shared" si="321"/>
+        <f t="shared" si="323"/>
         <v>1542.4</v>
       </c>
       <c r="P199" s="114">
-        <f t="shared" si="321"/>
+        <f t="shared" si="323"/>
         <v>1574.2</v>
       </c>
       <c r="Q199" s="114">
@@ -59398,11 +59417,11 @@
       <c r="DB199" s="112"/>
       <c r="DC199" s="112"/>
       <c r="DD199" s="112">
-        <f t="shared" si="319"/>
+        <f t="shared" si="321"/>
         <v>6199.9</v>
       </c>
       <c r="DE199" s="112">
-        <f t="shared" si="320"/>
+        <f t="shared" si="322"/>
         <v>5835.9000000000005</v>
       </c>
       <c r="DF199" s="85"/>
@@ -59442,35 +59461,35 @@
       <c r="I200" s="85"/>
       <c r="J200" s="85"/>
       <c r="K200" s="85">
-        <f t="shared" ref="K200:R200" si="322">K89-K196</f>
+        <f t="shared" ref="K200:R200" si="324">K89-K196</f>
         <v>1046.8</v>
       </c>
       <c r="L200" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="324"/>
         <v>988.5</v>
       </c>
       <c r="M200" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="324"/>
         <v>1083.4000000000001</v>
       </c>
       <c r="N200" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="324"/>
         <v>1228.3</v>
       </c>
       <c r="O200" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="324"/>
         <v>1147.8</v>
       </c>
       <c r="P200" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="324"/>
         <v>1164.2</v>
       </c>
       <c r="Q200" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="324"/>
         <v>1271</v>
       </c>
       <c r="R200" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="324"/>
         <v>1283.5999999999999</v>
       </c>
       <c r="S200" s="85"/>
@@ -59563,11 +59582,11 @@
       <c r="DB200" s="112"/>
       <c r="DC200" s="112"/>
       <c r="DD200" s="112">
-        <f t="shared" si="319"/>
+        <f t="shared" si="321"/>
         <v>4347</v>
       </c>
       <c r="DE200" s="112">
-        <f t="shared" si="320"/>
+        <f t="shared" si="322"/>
         <v>4866.6000000000004</v>
       </c>
       <c r="DF200" s="85"/>
@@ -60249,43 +60268,43 @@
       <c r="DI205" s="29"/>
       <c r="DJ205" s="29"/>
       <c r="DK205" s="28">
-        <f t="shared" ref="DK205:DT205" si="323">(DK63+DK55+DK52+DK51+DK10+DK48+DK35+DK54+DK14+DK38+DK64+DK33+DK11+DK26+DK36+DK39+DK59+DK47+DK60+DK49+DK62+DK56+DK58+DK65+DK57)</f>
+        <f t="shared" ref="DK205:DT205" si="325">(DK63+DK55+DK52+DK51+DK10+DK48+DK35+DK54+DK14+DK38+DK64+DK33+DK11+DK26+DK36+DK39+DK59+DK47+DK60+DK49+DK62+DK56+DK58+DK65+DK57)</f>
         <v>25281</v>
       </c>
       <c r="DL205" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="325"/>
         <v>26526</v>
       </c>
       <c r="DM205" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="325"/>
         <v>24892</v>
       </c>
       <c r="DN205" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="325"/>
         <v>20004</v>
       </c>
       <c r="DO205" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="325"/>
         <v>18945</v>
       </c>
       <c r="DP205" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="325"/>
         <v>16537</v>
       </c>
       <c r="DQ205" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="325"/>
         <v>15768</v>
       </c>
       <c r="DR205" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="325"/>
         <v>12932</v>
       </c>
       <c r="DS205" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="325"/>
         <v>11819</v>
       </c>
       <c r="DT205" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="325"/>
         <v>10003</v>
       </c>
       <c r="DU205" s="28"/>
@@ -60414,43 +60433,43 @@
       <c r="DI206" s="116"/>
       <c r="DJ206" s="116"/>
       <c r="DK206" s="117">
-        <f t="shared" ref="DK206:DT206" si="324">DK205/DK88</f>
+        <f t="shared" ref="DK206:DT206" si="326">DK205/DK88</f>
         <v>0.54900214988381946</v>
       </c>
       <c r="DL206" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="326"/>
         <v>0.55278622931688404</v>
       </c>
       <c r="DM206" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="326"/>
         <v>0.52659191876454414</v>
       </c>
       <c r="DN206" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="326"/>
         <v>0.45430595930232559</v>
       </c>
       <c r="DO206" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="326"/>
         <v>0.4485403792883017</v>
       </c>
       <c r="DP206" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="326"/>
         <v>0.41867942680642056</v>
       </c>
       <c r="DQ206" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="326"/>
         <v>0.39611123671716031</v>
       </c>
       <c r="DR206" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="326"/>
         <v>0.32231693335327249</v>
       </c>
       <c r="DS206" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="326"/>
         <v>0.27944862155388472</v>
       </c>
       <c r="DT206" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="326"/>
         <v>0.21355222988407591</v>
       </c>
       <c r="DU206" s="117"/>
@@ -66865,6 +66884,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -66978,15 +67006,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{958B6939-179A-4B1A-8B2E-7C8092C58C5B}">
   <ds:schemaRefs>
@@ -66997,6 +67016,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C45FF9D-F8BD-4029-B235-519EDFAFA19B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67010,12 +67037,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>